--- a/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,21</t>
+          <t>2,02; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,5</t>
+          <t>2,52; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 4,49</t>
+          <t>2,08; 2,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,77</t>
+          <t>2,02; 2,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,71</t>
+          <t>1,57; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,34</t>
+          <t>2,4; 3,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,1</t>
+          <t>2,11; 3,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,03</t>
+          <t>2,11; 2,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,44</t>
+          <t>1,98; 3,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,69</t>
+          <t>2,58; 3,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,32</t>
+          <t>2,17; 2,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,7</t>
+          <t>2,16; 2,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,81</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,56</t>
+          <t>2,26; 3,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,66</t>
+          <t>2,24; 3,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,84</t>
+          <t>2,2; 2,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,5</t>
+          <t>2,34; 3,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,17</t>
+          <t>1,99; 2,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,95</t>
+          <t>2,25; 2,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,69</t>
+          <t>2,4; 3,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,9</t>
+          <t>2,29; 3,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,16</t>
+          <t>2,21; 3,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 3,57</t>
+          <t>2,32; 3,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,94</t>
+          <t>2,38; 2,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,55</t>
+          <t>2,41; 3,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,71</t>
+          <t>2,8; 4,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,76</t>
+          <t>2,54; 3,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,75</t>
+          <t>2,18; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 3,74</t>
+          <t>2,58; 7,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,58</t>
+          <t>2,18; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,89</t>
+          <t>1,98; 2,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,59</t>
+          <t>1,76; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,3</t>
+          <t>2,16; 3,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,14</t>
+          <t>2,69; 4,09</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,09</t>
+          <t>2,38; 2,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,99</t>
+          <t>2,11; 2,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,3</t>
+          <t>2,5; 4,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
+          <t>2,25</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,21</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,99</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,96</t>
+          <t>2,02; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,38</t>
+          <t>2,12; 2,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,27</t>
+          <t>2,4; 3,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,13</t>
+          <t>2,29; 3,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,1</t>
+          <t>1,79; 2,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,51</t>
+          <t>1,99; 2,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,33</t>
+          <t>2,18; 2,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,07</t>
+          <t>2,67; 4,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,09</t>
+          <t>1,98; 2,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,9</t>
+          <t>2,13; 2,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,81</t>
+          <t>2,36; 2,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,01</t>
+          <t>2,59; 3,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>2,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,11</t>
+          <t>2,51; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,66</t>
+          <t>2,5; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,26</t>
+          <t>2,38; 2,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 3,5</t>
+          <t>2,61; 3,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,38</t>
+          <t>2,03; 2,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,56</t>
+          <t>2,29; 2,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,82</t>
+          <t>2,32; 2,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,11</t>
+          <t>2,53; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,65</t>
+          <t>2,35; 2,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,53</t>
+          <t>2,44; 2,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,92</t>
+          <t>2,39; 2,71</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,58</t>
+          <t>2,64; 3,27</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,79</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 3,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 3,03</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 2,76</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 3,98</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 2,4</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,29; 2,65</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,32; 2,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 3,13</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,35; 2,83</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 2,76</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 2,71</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 3,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de veces que han intentado dejar de fumar</t>
+          <t>Número medio de veces que han intentado dejar de fumar</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,57 +729,57 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 3,54</t>
+          <t>2,51; 3,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,91</t>
+          <t>2,11; 2,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,02; 2,65</t>
+          <t>2,04; 2,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,17</t>
+          <t>1,56; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,74</t>
+          <t>2,42; 3,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,22</t>
+          <t>2,12; 3,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,76</t>
+          <t>2,12; 2,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 3,0</t>
+          <t>1,97; 2,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,33</t>
+          <t>2,57; 3,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,85</t>
+          <t>2,18; 2,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,62</t>
+          <t>2,14; 2,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,71</t>
+          <t>2,22; 3,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 3,76</t>
+          <t>2,23; 3,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,75</t>
+          <t>2,21; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,69</t>
+          <t>2,4; 3,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,58</t>
+          <t>1,96; 2,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 2,89</t>
+          <t>2,23; 2,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,59</t>
+          <t>2,41; 3,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,29</t>
+          <t>2,31; 3,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 3,14</t>
+          <t>2,2; 3,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 3,09</t>
+          <t>2,32; 3,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,99</t>
+          <t>2,38; 3,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,31</t>
+          <t>2,46; 3,35</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,96</t>
+          <t>2,79; 5,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 3,38</t>
+          <t>2,55; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,27</t>
+          <t>2,25; 3,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,78</t>
+          <t>2,59; 7,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 3,1</t>
+          <t>2,13; 3,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,51</t>
+          <t>1,97; 2,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,33</t>
+          <t>1,75; 2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,04</t>
+          <t>2,17; 2,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 4,09</t>
+          <t>2,69; 4,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,9</t>
+          <t>2,39; 2,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,81</t>
+          <t>2,13; 2,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,91</t>
+          <t>2,5; 5,22</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,11</t>
+          <t>2,03; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,66</t>
+          <t>2,12; 2,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 3,26</t>
+          <t>2,37; 3,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 3,56</t>
+          <t>2,28; 3,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,38</t>
+          <t>1,8; 2,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,56</t>
+          <t>1,99; 2,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,18; 2,82</t>
+          <t>2,16; 2,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,08</t>
+          <t>2,68; 3,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 2,65</t>
+          <t>1,98; 2,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,53</t>
+          <t>2,14; 2,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,36; 2,92</t>
+          <t>2,36; 2,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,56</t>
+          <t>2,61; 3,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 3,3</t>
+          <t>2,49; 3,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 3,03</t>
+          <t>2,5; 3,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,76</t>
+          <t>2,38; 2,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,89</t>
+          <t>2,6; 3,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 2,4</t>
+          <t>2,02; 2,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,65</t>
+          <t>2,28; 2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 2,8</t>
+          <t>2,31; 2,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,53; 3,11</t>
+          <t>2,55; 3,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,83</t>
+          <t>2,36; 2,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 2,76</t>
+          <t>2,45; 2,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 2,71</t>
+          <t>2,39; 2,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,27</t>
+          <t>2,62; 3,3</t>
         </is>
       </c>
     </row>
